--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Drenaje Superficial fundo Paico</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,16 +2882,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Carlos German Dienemann Clericus</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>99</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Drenaje Superficial fundo Paico</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Carlos German Dienemann Clericus</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>99</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
+          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
+          <t>PLANTA TERCIADO SAN JOSÉ</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>PANELES ARAUCO S. A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>105000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PLANTA TERCIADO SAN JOSÉ</t>
+          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PANELES ARAUCO S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Drenaje Superficial fundo Paico</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,16 +2882,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Carlos German Dienemann Clericus</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>99</v>
+        <v>1000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Drenaje Superficial fundo Paico</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Carlos German Dienemann Clericus</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>99</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
+          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PLANTA TERCIADO SAN JOSÉ</t>
+          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>PANELES ARAUCO S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>105000</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
+          <t>PLANTA TERCIADO SAN JOSÉ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>PANELES ARAUCO S. A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>20000</v>
+        <v>105000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESOS AMBIENTALES, SEGREGACIÓN, VALORIZACIÓN, RECICLAJE DE RESIDUOS INDUSTRIALES Y DOMICILIARIOS ASIMILABLES A INDUSTRIAL.</t>
+          <t>Extracción y Procesamiento de Áridos Fundo Las Camelias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
+          <t>María Concepción Seguel Seguel</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>08/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476549&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157269499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta de Procesos Ambientales, Segregación, Valorización, Reciclaje de Residuos Industriales y Domiciliarios Asimilables a Industrial.</t>
+          <t>PLANTA DE PROCESOS AMBIENTALES, SEGREGACIÓN, VALORIZACIÓN, RECICLAJE DE RESIDUOS INDUSTRIALES Y DOMICILIARIOS ASIMILABLES A INDUSTRIAL.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146628079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476549&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Extracción de Áridos El Bosque</t>
+          <t>Planta de Procesos Ambientales, Segregación, Valorización, Reciclaje de Residuos Industriales y Domiciliarios Asimilables a Industrial.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Constructora El Bosque Limitada</t>
+          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>127</v>
+        <v>2900</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>04/05/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146364849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146628079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Ampliación Pozo de Extracción de Áridos El Bosque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Constructora El Bosque Limitada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>25000</v>
+        <v>127</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>04/05/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146364849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de aguas servidas de Mehuin</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Mariquina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2400</v>
+        <v>25000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145246851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Regularización Extracción de Aridos Pozo El Bosque</t>
+          <t>Planta de tratamiento de aguas servidas de Mehuin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Constructora El Bosque Limitada</t>
+          <t>Ilustre Municipalidad de Mariquina</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>127</v>
+        <v>2400</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/07/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143391937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145246851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca Planta Mariquina</t>
+          <t>Regularización Extracción de Aridos Pozo El Bosque</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca S.A.</t>
+          <t>Constructora El Bosque Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10500</v>
+        <v>127</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11/06/2019</t>
+          <t>22/07/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143427736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143391937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESOS AMBIENTALES, SEGREGACIÓN, VALORIZACIÓN, RECICLAJE DE RESIDUOS INDUSTRIALES Y DOMICILIARIOS</t>
+          <t>Forestal Santa Blanca Planta Mariquina</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
+          <t>Forestal Santa Blanca S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>11/06/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142947250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143427736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca Planta Mariquina</t>
+          <t>PLANTA DE PROCESOS AMBIENTALES, SEGREGACIÓN, VALORIZACIÓN, RECICLAJE DE RESIDUOS INDUSTRIALES Y DOMICILIARIOS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca S.A.</t>
+          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/01/2019</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142341581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142947250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Alejandro Sebastián Holzapfel</t>
+          <t>Forestal Santa Blanca S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>27/12/2018</t>
+          <t>23/01/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142165779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142341581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta de Procesos Ambientales, segregación, valorización de residuos, reciclaje de residuos industriales y domiciliarios</t>
+          <t>Forestal Santa Blanca Planta Mariquina</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
+          <t>Alejandro Sebastián Holzapfel</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15/12/2018</t>
+          <t>27/12/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142097171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142165779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,30 +952,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Eólico Pichilingue</t>
+          <t>Planta de Procesos Ambientales, segregación, valorización de residuos, reciclaje de residuos industriales y domiciliarios</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PICHILINGUE SpA</t>
+          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>175000</v>
+        <v>4500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>09/11/2018</t>
+          <t>15/12/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141607848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142097171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,40 +1000,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación S/E Ciruelos 220 kV</t>
+          <t>Parque Eólico Pichilingue</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>PICHILINGUE SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3670</v>
+        <v>175000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>09/11/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139184149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141607848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modernización Ampliación Aserradero Valdivia</t>
+          <t>Ampliación S/E Ciruelos 220 kV</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>151000</v>
+        <v>3670</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16/10/2017</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132786794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139184149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Regularización Extracción de Áridos Pozo El Bosque</t>
+          <t>Modernización Ampliación Aserradero Valdivia</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones El Bosque Ltda</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>127</v>
+        <v>151000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08/08/2017</t>
+          <t>16/10/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132613306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132786794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Regularización Extracción de Áridos pozo el Bosque</t>
+          <t>Regularización Extracción de Áridos Pozo El Bosque</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/06/2017</t>
+          <t>08/08/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132221440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132613306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Regularización Extracción de Áridos pozo el Bosque</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Sociedad de Inversiones El Bosque Ltda</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>20000</v>
+        <v>127</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>22/06/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132221440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Obras Complementarias Línea 2x220 kV Ciruelos-Pichirropulli</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>11300</v>
+        <v>10000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131508810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Regularización de Extracción de Áridos Pozo El Bosque</t>
+          <t>Obras Complementarias Línea 2x220 kV Ciruelos-Pichirropulli</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Carlos Adolfo Gurtierrez olguín</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>127</v>
+        <v>11300</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/05/2016</t>
+          <t>21/06/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131403118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131508810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "SurOeste de Punta ChanChan Pert N° 210141022"</t>
+          <t>Regularización de Extracción de Áridos Pozo El Bosque</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>Carlos Adolfo Gurtierrez olguín</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2300</v>
+        <v>127</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12/11/2015</t>
+          <t>12/05/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131403118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte de Punta ChanChan Pert N° 210141021"</t>
+          <t>Centro de Engorda de Salmonideos "SurOeste de Punta ChanChan Pert N° 210141022"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11/11/2015</t>
+          <t>12/11/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "SurOeste de Punta Piedra Blanco Pert N° 210141023"</t>
+          <t>Centro de Engorda de Salmonideos "Norte de Punta ChanChan Pert N° 210141021"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "SurOeste de Punta Huezhui N° Pert 210141020"</t>
+          <t>Centro de Engorda de Salmonideos "SurOeste de Punta Piedra Blanco Pert N° 210141023"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte de Punta Huezhui N° Pert 210141019"</t>
+          <t>Centro de Engorda de Salmonideos "SurOeste de Punta Huezhui N° Pert 210141020"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1595,11 +1595,11 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/11/2015</t>
+          <t>11/11/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de aguas servidas de Mehuin</t>
+          <t>Centro de Engorda de Salmonideos "Norte de Punta Huezhui N° Pert 210141019"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Mariquina</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>26/08/2015</t>
+          <t>10/11/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130708038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos SurOeste de Punta Huezhui N° Pert 210141020</t>
+          <t>Planta de tratamiento de aguas servidas de Mehuin</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>Ilustre Municipalidad de Mariquina</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>27/07/2015</t>
+          <t>26/08/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130708038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Norte de Punta Chanchan N° Pert 210141021</t>
+          <t>Centro de Engorda de Salmonideos SurOeste de Punta Huezhui N° Pert 210141020</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Norte de Punta Huezhui N° Pert 210141019</t>
+          <t>Centro de Engorda de Salmonideos Norte de Punta Chanchan N° Pert 210141021</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>24/07/2015</t>
+          <t>27/07/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos SurOeste de Punta Piedra Blanco N° Pert 210141023</t>
+          <t>Centro de Engorda de Salmonideos Norte de Punta Huezhui N° Pert 210141019</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21/07/2015</t>
+          <t>24/07/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos SurOeste de Punta Chanchan N° Pert 210141022</t>
+          <t>Centro de Engorda de Salmonideos SurOeste de Punta Piedra Blanco N° Pert 210141023</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Centro de Engorda de Salmonideos SurOeste de Punta Chanchan N° Pert 210141022</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>2600</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>21/07/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pulpa Textil</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11/07/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129608017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Pulpa Textil</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>11/07/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129608017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Subestación Enlace Ciruelos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>215020</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>22/05/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129486849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Subestación Enlace Ciruelos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1200</v>
+        <v>215020</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/05/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129486849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,40 +2488,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"Línea 2x220 kV Ciruelos-Pichirropulli"</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>77000</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128563224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,30 +2536,30 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>"Línea 2x220 kV Ciruelos-Pichirropulli"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>77000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128563224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Drenaje Superficial fundo Paico</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Carlos German Dienemann Clericus</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>99</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Drenaje Superficial fundo Paico</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Carlos German Dienemann Clericus</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Extracción de ÁridosPredio Las Camelias</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Loa Acacios</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6358702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Extracción de ÁridosPredio Las Camelias</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad Agrícola Loa Acacios</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>09/12/2011</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6358702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>"EXTRACCIÓN DE ÁRIDOS, POZO DOLLINCO BAJO, REGIÓN DE LOS RÍOS-FORESTAL VALDIVIA S.A."</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Forestal Valdivia S.A</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>319</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>26/07/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Drenaje superficial fundo Paico</t>
+          <t>"EXTRACCIÓN DE ÁRIDOS, POZO DOLLINCO BAJO, REGIÓN DE LOS RÍOS-FORESTAL VALDIVIA S.A."</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Carlos Dienemann Clericus</t>
+          <t>Forestal Valdivia S.A</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>93</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>17/05/2011</t>
+          <t>26/07/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5629264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Drenaje superficial fundo Paico</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Carlos Dienemann Clericus</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>17/05/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5629264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Extracción de Aridos Ciruelos</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Pilotraro Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20/10/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5013346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Ciruelos</t>
+          <t>Extracción de Aridos Ciruelos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,21 +3419,21 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>13/10/2010</t>
+          <t>20/10/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4989672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5013346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Extracción de Áridos Ciruelos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Sociedad de Inversiones Pilotraro Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>13/10/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4989672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE MARIQUINA</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Mariquina</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>02/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4631400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
+          <t>PLAN REGULADOR COMUNAL DE MARIQUINA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Ilustre Municipalidad de Mariquina</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>28/05/2010</t>
+          <t>02/06/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4631400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
+          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PLANTA TERCIADO SAN JOSÉ</t>
+          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PANELES ARAUCO S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>105000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE SAN JOSE DE LA MARIQUINA</t>
+          <t>PLANTA TERCIADO SAN JOSÉ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Mariquina</t>
+          <t>PANELES ARAUCO S. A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>105000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>30/04/2010</t>
+          <t>28/05/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>PLAN REGULADOR COMUNAL DE SAN JOSE DE LA MARIQUINA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de Mariquina</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>30/04/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Depósito de Residuos Industriales Sólidos No Peligrosos</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>16/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4390142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Depósito de Residuos Industriales Sólidos No Peligrosos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>16/02/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4390142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión San Pedro - S/E Ciruelos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,20 +4034,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4336617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Línea de Alta Tensión San Pedro - S/E Ciruelos (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1350</v>
+        <v>22000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4336617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,11 +4135,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Estanque Acumulador de Licor negro Planta Valdivia (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4500</v>
+        <v>377</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>16/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Estanque Acumulador de Licor negro Planta Valdivia (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>4500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>16/10/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Coincineración de Lodos Terciarios en Planta Valdivia Coincineración de Lodos Terciarios (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3787574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,10 +4456,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sistema de Conducción y Descarga al mar de Efluentes Tratados de Planta valdivia Sistema de Conducción y Descarga al Mar</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>Coincineración de Lodos Terciarios en Planta Valdivia Coincineración de Lodos Terciarios (e-seia)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>Decimocuarta</t>
@@ -4471,11 +4475,11 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>65000</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>19/02/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4485,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3580072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3787574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sistema de Conducción y Descarga al Mar de efluentes tratados de Planta Valdivia</t>
+          <t>Sistema de Conducción y Descarga al mar de Efluentes Tratados de Planta valdivia Sistema de Conducción y Descarga al Mar</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -4511,7 +4515,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4519,17 +4523,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>13/02/2009</t>
+          <t>19/02/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3564603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3580072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4544,40 +4548,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Sistema de Conducción y Descarga al Mar de efluentes tratados de Planta Valdivia</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>13/02/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3564603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4615,17 +4615,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4663,17 +4663,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4711,17 +4711,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4751,25 +4751,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4807,17 +4807,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4847,11 +4847,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4860,12 +4860,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4895,25 +4895,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Utilización de Pozos para Captación de Aguas Subterráneas en Planta Valdivia Pozos para Captación de Aguas Subterráneas en PV (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4951,17 +4951,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>09/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3251312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Utilización de Pozos para Captación de Aguas Subterráneas en Planta Valdivia Pozos para Captación de Aguas Subterráneas en PV (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4986,30 +4986,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>09/10/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3251312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5039,15 +5039,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5087,25 +5087,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5135,25 +5135,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5191,17 +5191,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Relleno de Residuos Industriales no Peligrosos-Puile (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5226,30 +5226,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Reinaldo Norberto Ampuero Valenzuela</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>23/04/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2859509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Relleno de residuos Industriales No Peligrosos - Puile (e-seia)</t>
+          <t>Relleno de Residuos Industriales no Peligrosos-Puile (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,17 +5287,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>23/04/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2822549&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2859509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Relleno de residuos Industriales No Peligrosos - Puile (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5322,30 +5322,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Reinaldo Norberto Ampuero Valenzuela</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2822549&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Modificación del Consumo de Combustibles para la Producción de Celulosa y Generación Eléctrica en Planta Valdivia Mediante el Uso Combinado de Subproductos Forestales y Petróleo (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5418,12 +5418,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>28/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2530557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Modificación del Consumo de Combustibles para la Producción de Celulosa y Generación Eléctrica en Planta Valdivia Mediante el Uso Combinado de Subproductos Forestales y Petróleo (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5466,20 +5466,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>28/11/2007</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2530557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5519,25 +5519,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5567,25 +5567,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5615,25 +5615,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Reemplazo de la Laguna de Derrames de Emergencia de Planta Valdivia por Dos Lagunas de Derrames (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5658,30 +5658,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>17/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos en Cantera, La Piedad 2 (e-seia)</t>
+          <t>Reemplazo de la Laguna de Derrames de Emergencia de Planta Valdivia por Dos Lagunas de Derrames (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5711,25 +5711,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Osvaldo Cirano Gómez</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>27/07/2007</t>
+          <t>17/08/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2306765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Extracción Industrial de Aridos en Cantera, La Piedad 2 (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5754,20 +5754,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Osvaldo Cirano Gómez</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>300</v>
+        <v>219</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>27/07/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2306765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5792,40 +5792,40 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Incorporación de un Sistema de Filtración por Membranas al Tratamiento de Efluentes y Otras Mejoras Ambientales En Planta Valdivia</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2218812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5840,26 +5840,26 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Incorporación de un Sistema de Filtración por Membranas al Tratamiento de Efluentes y Otras Mejoras Ambientales En Planta Valdivia</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>80</v>
+        <v>25000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5868,12 +5868,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2218812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5903,25 +5903,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Veronica Herrmann Lobos</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>14/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5951,25 +5951,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Veronica Herrmann Lobos</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>14/05/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,17 +6007,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6047,25 +6047,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,17 +6103,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6143,25 +6143,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6191,25 +6191,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PROYECTO PROSPECCIONES EN LOS LAVADEROS DE ORO SECTOR MADRE DE DIOS - PUMILLAHUE (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6234,20 +6234,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Compañia Minera Pumillahue</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>962</v>
+        <v>200</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>21/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6257,7 +6257,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1827769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO PROSPECCIONES EN LOS LAVADEROS DE ORO SECTOR MADRE DE DIOS - PUMILLAHUE (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6282,20 +6282,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Compañia Minera Pumillahue</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>962</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>21/11/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1827769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6335,25 +6335,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Angie Ivonne Caro Astorga</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>23/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6383,25 +6383,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Angie Ivonne Caro Astorga</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>23/10/2006</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos en Cantera La Piedad 2 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6426,30 +6426,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Forestal Valdivia S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590803&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>Extracción Industrial de Áridos en Cantera La Piedad 2 (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6474,30 +6474,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Forestal Valdivia S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590803&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6527,25 +6527,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,17 +6583,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6623,25 +6623,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,17 +6679,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Rehabilitación Ambiental de Pozos de Áridos del Predio Traiguén (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6714,30 +6714,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>117</v>
+        <v>4000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>03/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan de Cierre y Rehabilitación Ambiental de Pozos de Áridos del Predio Traiguén (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6762,30 +6762,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>03/01/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6815,25 +6815,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3517</v>
+        <v>22</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN LÍMITE DE EMISIÓN DE ARSÉNICO EN EFLUENTE DE PLANTA VALDIVIA: COMPROMISO VOLUNTARIO DE CUMPLIR NORMA CHILENA DE AGUA POTABLE COMO LÍMITE DE EMISIÓN PARA ARSÉNICO EN LA DESCARGA (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6858,30 +6858,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>3517</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>09/08/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=972205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>ACTUALIZACIÓN LÍMITE DE EMISIÓN DE ARSÉNICO EN EFLUENTE DE PLANTA VALDIVIA: COMPROMISO VOLUNTARIO DE CUMPLIR NORMA CHILENA DE AGUA POTABLE COMO LÍMITE DE EMISIÓN PARA ARSÉNICO EN LA DESCARGA (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6906,30 +6906,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>09/08/2005</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=972205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,15 +6959,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -7015,17 +7015,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,15 +7055,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Obras Definitivas de Laguna de Derrames de Emergencia en Planta Valdivia (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7098,30 +7098,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>18/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=604793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DESCARGA DE EMERGENCIA DE EFLUENTES TRATADOS (e-seia)</t>
+          <t>Obras Definitivas de Laguna de Derrames de Emergencia en Planta Valdivia (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,25 +7151,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>18/02/2005</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=541298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=604793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>DESCARGA DE EMERGENCIA DE EFLUENTES TRATADOS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7194,30 +7194,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=541298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DRENAJE FUNDO DOLLINCO-PURENTO (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7242,20 +7242,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>sociedad de turismo alepue ltda</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>28/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>DRENAJE FUNDO DOLLINCO-PURENTO (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7290,20 +7290,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>sociedad de turismo alepue ltda</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>28/09/2004</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7338,12 +7338,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7386,20 +7386,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Áridos, Pozo Ciruelos (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7434,20 +7434,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Valdicor Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=84267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7491,21 +7491,21 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>05/05/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=84267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Restaurante Santa Rosa</t>
+          <t>Proyecto de Extracción de Áridos, Pozo Ciruelos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,25 +7535,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Luisa Agüero Fuentes</t>
+          <t>Valdicor Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>02/08/2002</t>
+          <t>05/05/2003</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Drenaje Hijuela Dollinco</t>
+          <t>Restaurante Santa Rosa</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,15 +7583,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Pedro del Prado Dantiac</t>
+          <t>Luisa Agüero Fuentes</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>02/08/2002</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Drenaje Hijuela Dollinco</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7626,20 +7626,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>Pedro del Prado Dantiac</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>10000</v>
+        <v>7</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,25 +7679,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Solicitud de Piscicultura en Estero Quechuco ( N° 200102009 )</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7722,20 +7722,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>SOMAFO S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>14/02/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF de Ruta 5 Km 780 Comuna de Mariquina Provincia de Valdivia Décima Región</t>
+          <t>Solicitud de Piscicultura en Estero Quechuco ( N° 200102009 )</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,25 +7775,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>SOMAFO S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>435</v>
+        <v>20</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>14/11/2000</t>
+          <t>14/02/2001</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transformación de Las Lagunas de San José en Lodos Activados</t>
+          <t>Estación de Servicio YPF de Ruta 5 Km 780 Comuna de Mariquina Provincia de Valdivia Décima Región</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,15 +7823,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1390</v>
+        <v>435</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>14/11/2000</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Planta de Aridos San José de la Mariquina</t>
+          <t>Transformación de Las Lagunas de San José en Lodos Activados</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,15 +7871,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Valdicor Ltda.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>290</v>
+        <v>1390</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>17/05/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Aridos San José de la Mariquina</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7914,20 +7914,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Valdicor Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>17/05/2000</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Construcción de Tranque Acumulador de Agua</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7962,20 +7962,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Agrícola Cran Chile Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>03/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Construcción de Cabañas y Quincho</t>
+          <t>Construcción de Tranque Acumulador de Agua</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,15 +8015,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Herta Gladys Morales Manqui</t>
+          <t>Agrícola Cran Chile Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>25/05/1999</t>
+          <t>03/12/1999</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción de Cabañas y Quincho</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8058,20 +8058,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Herta Gladys Morales Manqui</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>2500</v>
+        <v>90</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>25/05/1999</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Pozo de Extracción de Áridos Mariquina</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8106,20 +8106,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>FERROVIAL AGROMAN CHILE S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>990</v>
+        <v>2500</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>28/07/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Comuna de Mariquina</t>
+          <t>Pozo de Extracción de Áridos Mariquina</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,25 +8159,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Alvaro Leonidas Awe Espinoza</t>
+          <t>FERROVIAL AGROMAN CHILE S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>08/04/1998</t>
+          <t>28/07/1998</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,12 +8192,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto Valdivia (Celulosa Arauco y Constitución S.A.) Segunda Presentación</t>
+          <t>Extracción de Áridos Comuna de Mariquina</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -8207,25 +8207,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Alvaro Leonidas Awe Espinoza</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1.045</v>
+        <v>40</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>08/04/1998</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891034&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,43 +8240,91 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
+          <t>Proyecto Valdivia (Celulosa Arauco y Constitución S.A.) Segunda Presentación</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Decimocuarta</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Celulosa Arauco y Constitución S.A.</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>01/08/1997</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891034&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>San José de la Mariquina</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
           <t>Proyecto Valdivia ( Celulosa Arauco y Constitución ) Primera Presentación</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>Decimocuarta</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
-      <c r="F165" t="n">
+      <c r="F166" t="n">
         <v>1</v>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>06/10/1995</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
+      <c r="I166" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1441&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>San José de la Mariquina</t>
         </is>

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Drenaje Superficial fundo Paico</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Carlos German Dienemann Clericus</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>99</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Drenaje Superficial fundo Paico</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Carlos German Dienemann Clericus</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>99</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
+          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
+          <t>PLANTA TERCIADO SAN JOSÉ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>PANELES ARAUCO S. A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>105000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PLANTA TERCIADO SAN JOSÉ</t>
+          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PANELES ARAUCO S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Drenaje Superficial fundo Paico</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Carlos German Dienemann Clericus</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>99</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Drenaje Superficial fundo Paico</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Carlos German Dienemann Clericus</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>99</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
+          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PLANTA TERCIADO SAN JOSÉ</t>
+          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PANELES ARAUCO S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>105000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
+          <t>PLANTA TERCIADO SAN JOSÉ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>PANELES ARAUCO S. A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>20000</v>
+        <v>105000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/10/2022</t>
+          <t>17/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Drenaje Superficial fundo Paico</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Carlos German Dienemann Clericus</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>99</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Drenaje Superficial fundo Paico</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Carlos German Dienemann Clericus</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>99</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
+          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PLANTA TERCIADO SAN JOSÉ</t>
+          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PANELES ARAUCO S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>105000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
+          <t>PLANTA TERCIADO SAN JOSÉ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>PANELES ARAUCO S. A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>20000</v>
+        <v>105000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Drenaje Superficial fundo Paico</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Carlos German Dienemann Clericus</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>99</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Drenaje Superficial fundo Paico</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Carlos German Dienemann Clericus</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>99</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
+          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
+          <t>PLANTA TERCIADO SAN JOSÉ</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>PANELES ARAUCO S. A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>105000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PLANTA TERCIADO SAN JOSÉ</t>
+          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PANELES ARAUCO S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Fundo Las Camelias</t>
+          <t>Parque Solar Fotovoltaico Las Camelias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>María Concepción Seguel Seguel</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/10/2022</t>
+          <t>18/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157269499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159660332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESOS AMBIENTALES, SEGREGACIÓN, VALORIZACIÓN, RECICLAJE DE RESIDUOS INDUSTRIALES Y DOMICILIARIOS ASIMILABLES A INDUSTRIAL.</t>
+          <t>Extracción y Procesamiento de Áridos Fundo Las Camelias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
+          <t>María Concepción Seguel Seguel</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>17/10/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476549&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157269499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta de Procesos Ambientales, Segregación, Valorización, Reciclaje de Residuos Industriales y Domiciliarios Asimilables a Industrial.</t>
+          <t>PLANTA DE PROCESOS AMBIENTALES, SEGREGACIÓN, VALORIZACIÓN, RECICLAJE DE RESIDUOS INDUSTRIALES Y DOMICILIARIOS ASIMILABLES A INDUSTRIAL.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146628079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476549&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Extracción de Áridos El Bosque</t>
+          <t>Planta de Procesos Ambientales, Segregación, Valorización, Reciclaje de Residuos Industriales y Domiciliarios Asimilables a Industrial.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Constructora El Bosque Limitada</t>
+          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>127</v>
+        <v>2900</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>04/05/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146364849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146628079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Ampliación Pozo de Extracción de Áridos El Bosque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Constructora El Bosque Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25000</v>
+        <v>127</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>04/05/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146364849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de aguas servidas de Mehuin</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Mariquina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2400</v>
+        <v>25000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145246851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Regularización Extracción de Aridos Pozo El Bosque</t>
+          <t>Planta de tratamiento de aguas servidas de Mehuin</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Constructora El Bosque Limitada</t>
+          <t>Ilustre Municipalidad de Mariquina</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>127</v>
+        <v>2400</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/07/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143391937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145246851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca Planta Mariquina</t>
+          <t>Regularización Extracción de Aridos Pozo El Bosque</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca S.A.</t>
+          <t>Constructora El Bosque Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10500</v>
+        <v>127</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11/06/2019</t>
+          <t>22/07/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143427736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143391937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESOS AMBIENTALES, SEGREGACIÓN, VALORIZACIÓN, RECICLAJE DE RESIDUOS INDUSTRIALES Y DOMICILIARIOS</t>
+          <t>Forestal Santa Blanca Planta Mariquina</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
+          <t>Forestal Santa Blanca S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>11/06/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142947250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143427736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca Planta Mariquina</t>
+          <t>PLANTA DE PROCESOS AMBIENTALES, SEGREGACIÓN, VALORIZACIÓN, RECICLAJE DE RESIDUOS INDUSTRIALES Y DOMICILIARIOS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca S.A.</t>
+          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/01/2019</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142341581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142947250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Alejandro Sebastián Holzapfel</t>
+          <t>Forestal Santa Blanca S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/12/2018</t>
+          <t>23/01/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142165779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142341581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Planta de Procesos Ambientales, segregación, valorización de residuos, reciclaje de residuos industriales y domiciliarios</t>
+          <t>Forestal Santa Blanca Planta Mariquina</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
+          <t>Alejandro Sebastián Holzapfel</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15/12/2018</t>
+          <t>27/12/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142097171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142165779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,30 +1000,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Eólico Pichilingue</t>
+          <t>Planta de Procesos Ambientales, segregación, valorización de residuos, reciclaje de residuos industriales y domiciliarios</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PICHILINGUE SpA</t>
+          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>175000</v>
+        <v>4500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>09/11/2018</t>
+          <t>15/12/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141607848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142097171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,40 +1048,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación S/E Ciruelos 220 kV</t>
+          <t>Parque Eólico Pichilingue</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>PICHILINGUE SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3670</v>
+        <v>175000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>09/11/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139184149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141607848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modernización Ampliación Aserradero Valdivia</t>
+          <t>Ampliación S/E Ciruelos 220 kV</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>151000</v>
+        <v>3670</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>16/10/2017</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132786794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139184149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Regularización Extracción de Áridos Pozo El Bosque</t>
+          <t>Modernización Ampliación Aserradero Valdivia</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones El Bosque Ltda</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>127</v>
+        <v>151000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/08/2017</t>
+          <t>16/10/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132613306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132786794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Regularización Extracción de Áridos pozo el Bosque</t>
+          <t>Regularización Extracción de Áridos Pozo El Bosque</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/06/2017</t>
+          <t>08/08/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132221440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132613306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Regularización Extracción de Áridos pozo el Bosque</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Sociedad de Inversiones El Bosque Ltda</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>20000</v>
+        <v>127</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>22/06/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132221440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Obras Complementarias Línea 2x220 kV Ciruelos-Pichirropulli</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>11300</v>
+        <v>10000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131508810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Regularización de Extracción de Áridos Pozo El Bosque</t>
+          <t>Obras Complementarias Línea 2x220 kV Ciruelos-Pichirropulli</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Carlos Adolfo Gurtierrez olguín</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>127</v>
+        <v>11300</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12/05/2016</t>
+          <t>21/06/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131403118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131508810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "SurOeste de Punta ChanChan Pert N° 210141022"</t>
+          <t>Regularización de Extracción de Áridos Pozo El Bosque</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>Carlos Adolfo Gurtierrez olguín</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2300</v>
+        <v>127</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12/11/2015</t>
+          <t>12/05/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131403118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte de Punta ChanChan Pert N° 210141021"</t>
+          <t>Centro de Engorda de Salmonideos "SurOeste de Punta ChanChan Pert N° 210141022"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11/11/2015</t>
+          <t>12/11/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "SurOeste de Punta Piedra Blanco Pert N° 210141023"</t>
+          <t>Centro de Engorda de Salmonideos "Norte de Punta ChanChan Pert N° 210141021"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "SurOeste de Punta Huezhui N° Pert 210141020"</t>
+          <t>Centro de Engorda de Salmonideos "SurOeste de Punta Piedra Blanco Pert N° 210141023"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte de Punta Huezhui N° Pert 210141019"</t>
+          <t>Centro de Engorda de Salmonideos "SurOeste de Punta Huezhui N° Pert 210141020"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1643,11 +1643,11 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10/11/2015</t>
+          <t>11/11/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de aguas servidas de Mehuin</t>
+          <t>Centro de Engorda de Salmonideos "Norte de Punta Huezhui N° Pert 210141019"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Mariquina</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>26/08/2015</t>
+          <t>10/11/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130708038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos SurOeste de Punta Huezhui N° Pert 210141020</t>
+          <t>Planta de tratamiento de aguas servidas de Mehuin</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>Ilustre Municipalidad de Mariquina</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>27/07/2015</t>
+          <t>26/08/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130708038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Norte de Punta Chanchan N° Pert 210141021</t>
+          <t>Centro de Engorda de Salmonideos SurOeste de Punta Huezhui N° Pert 210141020</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Norte de Punta Huezhui N° Pert 210141019</t>
+          <t>Centro de Engorda de Salmonideos Norte de Punta Chanchan N° Pert 210141021</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>24/07/2015</t>
+          <t>27/07/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos SurOeste de Punta Piedra Blanco N° Pert 210141023</t>
+          <t>Centro de Engorda de Salmonideos Norte de Punta Huezhui N° Pert 210141019</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21/07/2015</t>
+          <t>24/07/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos SurOeste de Punta Chanchan N° Pert 210141022</t>
+          <t>Centro de Engorda de Salmonideos SurOeste de Punta Piedra Blanco N° Pert 210141023</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Centro de Engorda de Salmonideos SurOeste de Punta Chanchan N° Pert 210141022</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>2600</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>21/07/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pulpa Textil</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11/07/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129608017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Pulpa Textil</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>11/07/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129608017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Subestación Enlace Ciruelos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>215020</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>22/05/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129486849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Subestación Enlace Ciruelos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1200</v>
+        <v>215020</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/05/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129486849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,40 +2536,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"Línea 2x220 kV Ciruelos-Pichirropulli"</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>77000</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128563224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,30 +2584,30 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>"Línea 2x220 kV Ciruelos-Pichirropulli"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>77000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128563224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Extracción de ÁridosPredio Las Camelias</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Loa Acacios</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6358702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Extracción de ÁridosPredio Las Camelias</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad Agrícola Loa Acacios</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>09/12/2011</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6358702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>"EXTRACCIÓN DE ÁRIDOS, POZO DOLLINCO BAJO, REGIÓN DE LOS RÍOS-FORESTAL VALDIVIA S.A."</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Forestal Valdivia S.A</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>319</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>26/07/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Drenaje superficial fundo Paico</t>
+          <t>"EXTRACCIÓN DE ÁRIDOS, POZO DOLLINCO BAJO, REGIÓN DE LOS RÍOS-FORESTAL VALDIVIA S.A."</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Carlos Dienemann Clericus</t>
+          <t>Forestal Valdivia S.A</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>93</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>17/05/2011</t>
+          <t>26/07/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5629264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Drenaje superficial fundo Paico</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Carlos Dienemann Clericus</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>17/05/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5629264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Extracción de Aridos Ciruelos</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Pilotraro Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/10/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5013346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Ciruelos</t>
+          <t>Extracción de Aridos Ciruelos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3467,21 +3467,21 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13/10/2010</t>
+          <t>20/10/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4989672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5013346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Extracción de Áridos Ciruelos</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Sociedad de Inversiones Pilotraro Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>13/10/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4989672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE MARIQUINA</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Mariquina</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>02/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4631400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
+          <t>PLAN REGULADOR COMUNAL DE MARIQUINA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Ilustre Municipalidad de Mariquina</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>28/05/2010</t>
+          <t>02/06/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4631400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE SAN JOSE DE LA MARIQUINA</t>
+          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Mariquina</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>30/04/2010</t>
+          <t>28/05/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>PLAN REGULADOR COMUNAL DE SAN JOSE DE LA MARIQUINA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de Mariquina</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>30/04/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Depósito de Residuos Industriales Sólidos No Peligrosos</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>16/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4390142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Depósito de Residuos Industriales Sólidos No Peligrosos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>16/02/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4390142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión San Pedro - S/E Ciruelos (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4336617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Línea de Alta Tensión San Pedro - S/E Ciruelos (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1350</v>
+        <v>22000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4336617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,11 +4183,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Estanque Acumulador de Licor negro Planta Valdivia (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4500</v>
+        <v>377</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>16/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Estanque Acumulador de Licor negro Planta Valdivia (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>4500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>16/10/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Coincineración de Lodos Terciarios en Planta Valdivia Coincineración de Lodos Terciarios (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3787574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,10 +4504,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sistema de Conducción y Descarga al mar de Efluentes Tratados de Planta valdivia Sistema de Conducción y Descarga al Mar</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>Coincineración de Lodos Terciarios en Planta Valdivia Coincineración de Lodos Terciarios (e-seia)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>Decimocuarta</t>
@@ -4519,11 +4523,11 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>65000</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>19/02/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4533,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3580072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3787574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sistema de Conducción y Descarga al Mar de efluentes tratados de Planta Valdivia</t>
+          <t>Sistema de Conducción y Descarga al mar de Efluentes Tratados de Planta valdivia Sistema de Conducción y Descarga al Mar</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -4559,7 +4563,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4567,17 +4571,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>13/02/2009</t>
+          <t>19/02/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3564603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3580072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4592,40 +4596,36 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Sistema de Conducción y Descarga al Mar de efluentes tratados de Planta Valdivia</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>13/02/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3564603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4663,17 +4663,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4711,17 +4711,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4759,17 +4759,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4799,25 +4799,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4855,17 +4855,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4895,11 +4895,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4908,12 +4908,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4943,25 +4943,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Utilización de Pozos para Captación de Aguas Subterráneas en Planta Valdivia Pozos para Captación de Aguas Subterráneas en PV (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4986,12 +4986,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -4999,17 +4999,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3251312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Utilización de Pozos para Captación de Aguas Subterráneas en Planta Valdivia Pozos para Captación de Aguas Subterráneas en PV (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5034,30 +5034,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>09/10/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3251312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5087,15 +5087,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5135,25 +5135,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5183,25 +5183,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5239,17 +5239,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Relleno de Residuos Industriales no Peligrosos-Puile (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5274,30 +5274,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Reinaldo Norberto Ampuero Valenzuela</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>23/04/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2859509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Relleno de residuos Industriales No Peligrosos - Puile (e-seia)</t>
+          <t>Relleno de Residuos Industriales no Peligrosos-Puile (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,17 +5335,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>23/04/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2822549&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2859509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Relleno de residuos Industriales No Peligrosos - Puile (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5370,30 +5370,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Reinaldo Norberto Ampuero Valenzuela</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2822549&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Modificación del Consumo de Combustibles para la Producción de Celulosa y Generación Eléctrica en Planta Valdivia Mediante el Uso Combinado de Subproductos Forestales y Petróleo (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5466,12 +5466,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>28/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2530557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Modificación del Consumo de Combustibles para la Producción de Celulosa y Generación Eléctrica en Planta Valdivia Mediante el Uso Combinado de Subproductos Forestales y Petróleo (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5514,20 +5514,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>28/11/2007</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2530557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5567,25 +5567,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5615,25 +5615,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5663,25 +5663,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Reemplazo de la Laguna de Derrames de Emergencia de Planta Valdivia por Dos Lagunas de Derrames (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5706,30 +5706,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>17/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos en Cantera, La Piedad 2 (e-seia)</t>
+          <t>Reemplazo de la Laguna de Derrames de Emergencia de Planta Valdivia por Dos Lagunas de Derrames (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5759,25 +5759,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Osvaldo Cirano Gómez</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>27/07/2007</t>
+          <t>17/08/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2306765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Extracción Industrial de Aridos en Cantera, La Piedad 2 (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5802,20 +5802,20 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Osvaldo Cirano Gómez</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>300</v>
+        <v>219</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>27/07/2007</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2306765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5840,40 +5840,40 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Incorporación de un Sistema de Filtración por Membranas al Tratamiento de Efluentes y Otras Mejoras Ambientales En Planta Valdivia</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2218812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5888,26 +5888,26 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Incorporación de un Sistema de Filtración por Membranas al Tratamiento de Efluentes y Otras Mejoras Ambientales En Planta Valdivia</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>80</v>
+        <v>25000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5916,12 +5916,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2218812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5951,25 +5951,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Veronica Herrmann Lobos</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>14/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5999,25 +5999,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Veronica Herrmann Lobos</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>14/05/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,17 +6055,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6095,25 +6095,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,17 +6151,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6191,25 +6191,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6239,25 +6239,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PROYECTO PROSPECCIONES EN LOS LAVADEROS DE ORO SECTOR MADRE DE DIOS - PUMILLAHUE (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6282,20 +6282,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Compañia Minera Pumillahue</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>962</v>
+        <v>200</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>21/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1827769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO PROSPECCIONES EN LOS LAVADEROS DE ORO SECTOR MADRE DE DIOS - PUMILLAHUE (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6330,20 +6330,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Compañia Minera Pumillahue</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>250</v>
+        <v>962</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>21/11/2006</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1827769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6383,25 +6383,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Angie Ivonne Caro Astorga</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>23/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6431,25 +6431,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Angie Ivonne Caro Astorga</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>23/10/2006</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos en Cantera La Piedad 2 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6474,30 +6474,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Forestal Valdivia S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590803&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>Extracción Industrial de Áridos en Cantera La Piedad 2 (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6522,30 +6522,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Forestal Valdivia S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590803&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6575,25 +6575,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,17 +6631,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6671,25 +6671,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,17 +6727,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Rehabilitación Ambiental de Pozos de Áridos del Predio Traiguén (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6762,30 +6762,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>117</v>
+        <v>4000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>03/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan de Cierre y Rehabilitación Ambiental de Pozos de Áridos del Predio Traiguén (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6810,30 +6810,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>03/01/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6863,25 +6863,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>3517</v>
+        <v>22</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN LÍMITE DE EMISIÓN DE ARSÉNICO EN EFLUENTE DE PLANTA VALDIVIA: COMPROMISO VOLUNTARIO DE CUMPLIR NORMA CHILENA DE AGUA POTABLE COMO LÍMITE DE EMISIÓN PARA ARSÉNICO EN LA DESCARGA (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6906,30 +6906,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>3517</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>09/08/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=972205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>ACTUALIZACIÓN LÍMITE DE EMISIÓN DE ARSÉNICO EN EFLUENTE DE PLANTA VALDIVIA: COMPROMISO VOLUNTARIO DE CUMPLIR NORMA CHILENA DE AGUA POTABLE COMO LÍMITE DE EMISIÓN PARA ARSÉNICO EN LA DESCARGA (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6954,30 +6954,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>09/08/2005</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=972205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7007,15 +7007,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -7063,17 +7063,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,15 +7103,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Obras Definitivas de Laguna de Derrames de Emergencia en Planta Valdivia (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7146,30 +7146,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>18/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=604793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DESCARGA DE EMERGENCIA DE EFLUENTES TRATADOS (e-seia)</t>
+          <t>Obras Definitivas de Laguna de Derrames de Emergencia en Planta Valdivia (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,25 +7199,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>18/02/2005</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=541298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=604793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>DESCARGA DE EMERGENCIA DE EFLUENTES TRATADOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7242,30 +7242,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=541298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DRENAJE FUNDO DOLLINCO-PURENTO (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7290,20 +7290,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>sociedad de turismo alepue ltda</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>28/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>DRENAJE FUNDO DOLLINCO-PURENTO (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7338,20 +7338,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>sociedad de turismo alepue ltda</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>28/09/2004</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7386,12 +7386,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7434,20 +7434,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Áridos, Pozo Ciruelos (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7482,20 +7482,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Valdicor Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=84267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7539,21 +7539,21 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>05/05/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=84267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Restaurante Santa Rosa</t>
+          <t>Proyecto de Extracción de Áridos, Pozo Ciruelos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,25 +7583,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Luisa Agüero Fuentes</t>
+          <t>Valdicor Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>02/08/2002</t>
+          <t>05/05/2003</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Drenaje Hijuela Dollinco</t>
+          <t>Restaurante Santa Rosa</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,15 +7631,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Pedro del Prado Dantiac</t>
+          <t>Luisa Agüero Fuentes</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>02/08/2002</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Drenaje Hijuela Dollinco</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7674,20 +7674,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>Pedro del Prado Dantiac</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>10000</v>
+        <v>7</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,25 +7727,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Solicitud de Piscicultura en Estero Quechuco ( N° 200102009 )</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7770,20 +7770,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>SOMAFO S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>14/02/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF de Ruta 5 Km 780 Comuna de Mariquina Provincia de Valdivia Décima Región</t>
+          <t>Solicitud de Piscicultura en Estero Quechuco ( N° 200102009 )</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,25 +7823,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>SOMAFO S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>435</v>
+        <v>20</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>14/11/2000</t>
+          <t>14/02/2001</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transformación de Las Lagunas de San José en Lodos Activados</t>
+          <t>Estación de Servicio YPF de Ruta 5 Km 780 Comuna de Mariquina Provincia de Valdivia Décima Región</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,15 +7871,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1390</v>
+        <v>435</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>14/11/2000</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Planta de Aridos San José de la Mariquina</t>
+          <t>Transformación de Las Lagunas de San José en Lodos Activados</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,15 +7919,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Valdicor Ltda.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>290</v>
+        <v>1390</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>17/05/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Aridos San José de la Mariquina</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7962,20 +7962,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Valdicor Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>17/05/2000</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Construcción de Tranque Acumulador de Agua</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8010,20 +8010,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Agrícola Cran Chile Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>03/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Construcción de Cabañas y Quincho</t>
+          <t>Construcción de Tranque Acumulador de Agua</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,15 +8063,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Herta Gladys Morales Manqui</t>
+          <t>Agrícola Cran Chile Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>25/05/1999</t>
+          <t>03/12/1999</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción de Cabañas y Quincho</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8106,20 +8106,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Herta Gladys Morales Manqui</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2500</v>
+        <v>90</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>25/05/1999</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Pozo de Extracción de Áridos Mariquina</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8154,20 +8154,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>FERROVIAL AGROMAN CHILE S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>990</v>
+        <v>2500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>28/07/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Comuna de Mariquina</t>
+          <t>Pozo de Extracción de Áridos Mariquina</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,25 +8207,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Alvaro Leonidas Awe Espinoza</t>
+          <t>FERROVIAL AGROMAN CHILE S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>08/04/1998</t>
+          <t>28/07/1998</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,12 +8240,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Proyecto Valdivia (Celulosa Arauco y Constitución S.A.) Segunda Presentación</t>
+          <t>Extracción de Áridos Comuna de Mariquina</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -8255,25 +8255,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Alvaro Leonidas Awe Espinoza</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1.045</v>
+        <v>40</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>08/04/1998</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891034&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,43 +8288,91 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
+          <t>Proyecto Valdivia (Celulosa Arauco y Constitución S.A.) Segunda Presentación</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Decimocuarta</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Celulosa Arauco y Constitución S.A.</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>01/08/1997</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891034&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>San José de la Mariquina</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
           <t>Proyecto Valdivia ( Celulosa Arauco y Constitución ) Primera Presentación</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>Decimocuarta</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
-      <c r="F166" t="n">
+      <c r="F167" t="n">
         <v>1</v>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>06/10/1995</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1441&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>San José de la Mariquina</t>
         </is>

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>21/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Drenaje Superficial fundo Paico</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Carlos German Dienemann Clericus</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>99</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Drenaje Superficial fundo Paico</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Carlos German Dienemann Clericus</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>99</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
+          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PLANTA TERCIADO SAN JOSÉ</t>
+          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PANELES ARAUCO S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>105000</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
+          <t>PLANTA TERCIADO SAN JOSÉ</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>PANELES ARAUCO S. A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>20000</v>
+        <v>105000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Drenaje Superficial fundo Paico</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Carlos German Dienemann Clericus</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>99</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Drenaje Superficial fundo Paico</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Carlos German Dienemann Clericus</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>99</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
+          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
+          <t>PLANTA TERCIADO SAN JOSÉ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>PANELES ARAUCO S. A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>105000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PLANTA TERCIADO SAN JOSÉ</t>
+          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>PANELES ARAUCO S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -7919,7 +7919,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Solar Fotovoltaico Las Camelias</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ORION POWER SpA</t>
+          <t>Transportes Bretti Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/07/2023</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159660332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Fundo Las Camelias</t>
+          <t>Parque Solar Fotovoltaico Las Camelias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>María Concepción Seguel Seguel</t>
+          <t>ORION POWER SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2500</v>
+        <v>20000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/10/2022</t>
+          <t>21/07/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157269499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159660332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESOS AMBIENTALES, SEGREGACIÓN, VALORIZACIÓN, RECICLAJE DE RESIDUOS INDUSTRIALES Y DOMICILIARIOS ASIMILABLES A INDUSTRIAL.</t>
+          <t>Extracción y Procesamiento de Áridos Fundo Las Camelias</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
+          <t>María Concepción Seguel Seguel</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>17/10/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476549&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157269499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Planta de Procesos Ambientales, Segregación, Valorización, Reciclaje de Residuos Industriales y Domiciliarios Asimilables a Industrial.</t>
+          <t>PLANTA DE PROCESOS AMBIENTALES, SEGREGACIÓN, VALORIZACIÓN, RECICLAJE DE RESIDUOS INDUSTRIALES Y DOMICILIARIOS ASIMILABLES A INDUSTRIAL.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146628079&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147476549&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Extracción de Áridos El Bosque</t>
+          <t>Planta de Procesos Ambientales, Segregación, Valorización, Reciclaje de Residuos Industriales y Domiciliarios Asimilables a Industrial.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Constructora El Bosque Limitada</t>
+          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>127</v>
+        <v>2900</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>04/05/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146364849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146628079&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Ampliación Pozo de Extracción de Áridos El Bosque</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Constructora El Bosque Limitada</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25000</v>
+        <v>127</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>04/05/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146364849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de aguas servidas de Mehuin</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Mariquina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2400</v>
+        <v>25000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145246851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Regularización Extracción de Aridos Pozo El Bosque</t>
+          <t>Planta de tratamiento de aguas servidas de Mehuin</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Constructora El Bosque Limitada</t>
+          <t>Ilustre Municipalidad de Mariquina</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>127</v>
+        <v>2400</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/07/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143391937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145246851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca Planta Mariquina</t>
+          <t>Regularización Extracción de Aridos Pozo El Bosque</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca S.A.</t>
+          <t>Constructora El Bosque Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10500</v>
+        <v>127</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11/06/2019</t>
+          <t>22/07/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143427736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143391937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PLANTA DE PROCESOS AMBIENTALES, SEGREGACIÓN, VALORIZACIÓN, RECICLAJE DE RESIDUOS INDUSTRIALES Y DOMICILIARIOS</t>
+          <t>Forestal Santa Blanca Planta Mariquina</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
+          <t>Forestal Santa Blanca S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/04/2019</t>
+          <t>11/06/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142947250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143427736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca Planta Mariquina</t>
+          <t>PLANTA DE PROCESOS AMBIENTALES, SEGREGACIÓN, VALORIZACIÓN, RECICLAJE DE RESIDUOS INDUSTRIALES Y DOMICILIARIOS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Forestal Santa Blanca S.A.</t>
+          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/01/2019</t>
+          <t>22/04/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142341581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142947250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Alejandro Sebastián Holzapfel</t>
+          <t>Forestal Santa Blanca S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>27/12/2018</t>
+          <t>23/01/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142165779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142341581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Planta de Procesos Ambientales, segregación, valorización de residuos, reciclaje de residuos industriales y domiciliarios</t>
+          <t>Forestal Santa Blanca Planta Mariquina</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
+          <t>Alejandro Sebastián Holzapfel</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15/12/2018</t>
+          <t>27/12/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142097171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142165779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,30 +1048,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Eólico Pichilingue</t>
+          <t>Planta de Procesos Ambientales, segregación, valorización de residuos, reciclaje de residuos industriales y domiciliarios</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PICHILINGUE SpA</t>
+          <t>SOCIEDAD DE SERVICIO DE RECOLECCIÓN DE RESIDUOS LTDA.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>175000</v>
+        <v>4500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09/11/2018</t>
+          <t>15/12/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141607848&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142097171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,40 +1096,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación S/E Ciruelos 220 kV</t>
+          <t>Parque Eólico Pichilingue</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>PICHILINGUE SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3670</v>
+        <v>175000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/05/2018</t>
+          <t>09/11/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139184149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141607848&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modernización Ampliación Aserradero Valdivia</t>
+          <t>Ampliación S/E Ciruelos 220 kV</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Maderas Arauco S.A</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>151000</v>
+        <v>3670</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16/10/2017</t>
+          <t>24/05/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132786794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139184149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Regularización Extracción de Áridos Pozo El Bosque</t>
+          <t>Modernización Ampliación Aserradero Valdivia</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones El Bosque Ltda</t>
+          <t>Maderas Arauco S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>127</v>
+        <v>151000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/08/2017</t>
+          <t>16/10/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132613306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132786794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Regularización Extracción de Áridos pozo el Bosque</t>
+          <t>Regularización Extracción de Áridos Pozo El Bosque</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/06/2017</t>
+          <t>08/08/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132221440&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132613306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Regularización Extracción de Áridos pozo el Bosque</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Sociedad de Inversiones El Bosque Ltda</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>20000</v>
+        <v>127</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>22/06/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132221440&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Obras Complementarias Línea 2x220 kV Ciruelos-Pichirropulli</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>11300</v>
+        <v>10000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21/06/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131508810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Regularización de Extracción de Áridos Pozo El Bosque</t>
+          <t>Obras Complementarias Línea 2x220 kV Ciruelos-Pichirropulli</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Carlos Adolfo Gurtierrez olguín</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>127</v>
+        <v>11300</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12/05/2016</t>
+          <t>21/06/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131403118&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131508810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "SurOeste de Punta ChanChan Pert N° 210141022"</t>
+          <t>Regularización de Extracción de Áridos Pozo El Bosque</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>Carlos Adolfo Gurtierrez olguín</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2300</v>
+        <v>127</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12/11/2015</t>
+          <t>12/05/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131403118&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte de Punta ChanChan Pert N° 210141021"</t>
+          <t>Centro de Engorda de Salmonideos "SurOeste de Punta ChanChan Pert N° 210141022"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11/11/2015</t>
+          <t>12/11/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "SurOeste de Punta Piedra Blanco Pert N° 210141023"</t>
+          <t>Centro de Engorda de Salmonideos "Norte de Punta ChanChan Pert N° 210141021"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859830&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "SurOeste de Punta Huezhui N° Pert 210141020"</t>
+          <t>Centro de Engorda de Salmonideos "SurOeste de Punta Piedra Blanco Pert N° 210141023"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859830&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos "Norte de Punta Huezhui N° Pert 210141019"</t>
+          <t>Centro de Engorda de Salmonideos "SurOeste de Punta Huezhui N° Pert 210141020"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1691,11 +1691,11 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10/11/2015</t>
+          <t>11/11/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Planta de tratamiento de aguas servidas de Mehuin</t>
+          <t>Centro de Engorda de Salmonideos "Norte de Punta Huezhui N° Pert 210141019"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Mariquina</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/08/2015</t>
+          <t>10/11/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130708038&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130859672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos SurOeste de Punta Huezhui N° Pert 210141020</t>
+          <t>Planta de tratamiento de aguas servidas de Mehuin</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Lago Yelcho SpA</t>
+          <t>Ilustre Municipalidad de Mariquina</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>27/07/2015</t>
+          <t>26/08/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130708038&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Norte de Punta Chanchan N° Pert 210141021</t>
+          <t>Centro de Engorda de Salmonideos SurOeste de Punta Huezhui N° Pert 210141020</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos Norte de Punta Huezhui N° Pert 210141019</t>
+          <t>Centro de Engorda de Salmonideos Norte de Punta Chanchan N° Pert 210141021</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>24/07/2015</t>
+          <t>27/07/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos SurOeste de Punta Piedra Blanco N° Pert 210141023</t>
+          <t>Centro de Engorda de Salmonideos Norte de Punta Huezhui N° Pert 210141019</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/07/2015</t>
+          <t>24/07/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonideos SurOeste de Punta Chanchan N° Pert 210141022</t>
+          <t>Centro de Engorda de Salmonideos SurOeste de Punta Piedra Blanco N° Pert 210141023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542609&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Centro de Engorda de Salmonideos SurOeste de Punta Chanchan N° Pert 210141022</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Cultivos Marinos Lago Yelcho SpA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>2600</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>21/07/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130542609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pulpa Textil</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>180000</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>11/07/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129608017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Pulpa Textil</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>180000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>11/07/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129608017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Subestación Enlace Ciruelos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>215020</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>22/05/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129486849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Subestación Enlace Ciruelos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1200</v>
+        <v>215020</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/05/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129486849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,40 +2584,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"Línea 2x220 kV Ciruelos-Pichirropulli"</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Eletrans S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>77000</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128563224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,30 +2632,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>"Línea 2x220 kV Ciruelos-Pichirropulli"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Eletrans S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>77000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128563224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5000</v>
+        <v>250</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Drenaje Superficial fundo Paico</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Carlos German Dienemann Clericus</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>99</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Drenaje Superficial fundo Paico</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Carlos German Dienemann Clericus</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Extracción de ÁridosPredio Las Camelias</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Loa Acacios</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6358702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Extracción de ÁridosPredio Las Camelias</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sociedad Agrícola Loa Acacios</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>09/12/2011</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6358702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"EXTRACCIÓN DE ÁRIDOS, POZO DOLLINCO BAJO, REGIÓN DE LOS RÍOS-FORESTAL VALDIVIA S.A."</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Forestal Valdivia S.A</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>319</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>26/07/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Drenaje superficial fundo Paico</t>
+          <t>"EXTRACCIÓN DE ÁRIDOS, POZO DOLLINCO BAJO, REGIÓN DE LOS RÍOS-FORESTAL VALDIVIA S.A."</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Carlos Dienemann Clericus</t>
+          <t>Forestal Valdivia S.A</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>93</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>17/05/2011</t>
+          <t>26/07/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5629264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5849320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Drenaje superficial fundo Paico</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Carlos Dienemann Clericus</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>17/05/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5629264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Extracción de Aridos Ciruelos</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Pilotraro Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/10/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5013346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Ciruelos</t>
+          <t>Extracción de Aridos Ciruelos</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3515,21 +3515,21 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>13/10/2010</t>
+          <t>20/10/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4989672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5013346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Extracción de Áridos Ciruelos</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Sociedad de Inversiones Pilotraro Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>13/10/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4989672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE MARIQUINA</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Mariquina</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>02/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4631400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
+          <t>PLAN REGULADOR COMUNAL DE MARIQUINA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Ilustre Municipalidad de Mariquina</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>28/05/2010</t>
+          <t>02/06/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4631400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
+          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PLANTA TERCIADO SAN JOSÉ</t>
+          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>PANELES ARAUCO S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>105000</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE SAN JOSE DE LA MARIQUINA</t>
+          <t>PLANTA TERCIADO SAN JOSÉ</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Mariquina</t>
+          <t>PANELES ARAUCO S. A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>105000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>30/04/2010</t>
+          <t>28/05/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>PLAN REGULADOR COMUNAL DE SAN JOSE DE LA MARIQUINA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Ilustre Municipalidad de Mariquina</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>30/04/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Depósito de Residuos Industriales Sólidos No Peligrosos</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>16/02/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4390142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Depósito de Residuos Industriales Sólidos No Peligrosos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>16/02/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4390142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión San Pedro - S/E Ciruelos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4336617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Línea de Alta Tensión San Pedro - S/E Ciruelos (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,20 +4178,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1350</v>
+        <v>22000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4336617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,11 +4231,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Estanque Acumulador de Licor negro Planta Valdivia (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4500</v>
+        <v>377</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>16/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Estanque Acumulador de Licor negro Planta Valdivia (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>4500</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>16/10/2009</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4115586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Coincineración de Lodos Terciarios en Planta Valdivia Coincineración de Lodos Terciarios (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3787574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,10 +4552,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sistema de Conducción y Descarga al mar de Efluentes Tratados de Planta valdivia Sistema de Conducción y Descarga al Mar</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>Coincineración de Lodos Terciarios en Planta Valdivia Coincineración de Lodos Terciarios (e-seia)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>Decimocuarta</t>
@@ -4567,11 +4571,11 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>65000</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>19/02/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4581,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3580072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3787574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sistema de Conducción y Descarga al Mar de efluentes tratados de Planta Valdivia</t>
+          <t>Sistema de Conducción y Descarga al mar de Efluentes Tratados de Planta valdivia Sistema de Conducción y Descarga al Mar</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -4607,7 +4611,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4615,17 +4619,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>13/02/2009</t>
+          <t>19/02/2009</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3564603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3580072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4640,40 +4644,36 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Sistema de Conducción y Descarga al Mar de efluentes tratados de Planta Valdivia</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>13/02/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3564603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4711,17 +4711,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4759,17 +4759,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4784,7 +4784,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4807,17 +4807,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4847,25 +4847,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4903,17 +4903,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4943,11 +4943,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4956,12 +4956,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4991,25 +4991,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Utilización de Pozos para Captación de Aguas Subterráneas en Planta Valdivia Pozos para Captación de Aguas Subterráneas en PV (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5047,17 +5047,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>09/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3251312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Utilización de Pozos para Captación de Aguas Subterráneas en Planta Valdivia Pozos para Captación de Aguas Subterráneas en PV (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5082,30 +5082,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>09/10/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3251312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5135,15 +5135,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5183,25 +5183,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5231,25 +5231,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5287,17 +5287,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5312,7 +5312,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Relleno de Residuos Industriales no Peligrosos-Puile (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5322,30 +5322,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Reinaldo Norberto Ampuero Valenzuela</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>23/04/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2859509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5360,7 +5360,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Relleno de residuos Industriales No Peligrosos - Puile (e-seia)</t>
+          <t>Relleno de Residuos Industriales no Peligrosos-Puile (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,17 +5383,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>23/04/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2822549&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2859509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Relleno de residuos Industriales No Peligrosos - Puile (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5418,30 +5418,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Reinaldo Norberto Ampuero Valenzuela</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2822549&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Modificación del Consumo de Combustibles para la Producción de Celulosa y Generación Eléctrica en Planta Valdivia Mediante el Uso Combinado de Subproductos Forestales y Petróleo (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5514,12 +5514,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>28/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2530557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Modificación del Consumo de Combustibles para la Producción de Celulosa y Generación Eléctrica en Planta Valdivia Mediante el Uso Combinado de Subproductos Forestales y Petróleo (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5562,20 +5562,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>28/11/2007</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2530557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5615,25 +5615,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5663,25 +5663,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5711,25 +5711,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Reemplazo de la Laguna de Derrames de Emergencia de Planta Valdivia por Dos Lagunas de Derrames (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5754,30 +5754,30 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>17/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Aridos en Cantera, La Piedad 2 (e-seia)</t>
+          <t>Reemplazo de la Laguna de Derrames de Emergencia de Planta Valdivia por Dos Lagunas de Derrames (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5807,25 +5807,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Osvaldo Cirano Gómez</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>27/07/2007</t>
+          <t>17/08/2007</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2306765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2322657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Extracción Industrial de Aridos en Cantera, La Piedad 2 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5850,20 +5850,20 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Osvaldo Cirano Gómez</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>300</v>
+        <v>219</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>27/07/2007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5873,7 +5873,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2306765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5888,40 +5888,40 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Incorporación de un Sistema de Filtración por Membranas al Tratamiento de Efluentes y Otras Mejoras Ambientales En Planta Valdivia</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>25000</v>
+        <v>300</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2218812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5936,26 +5936,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Incorporación de un Sistema de Filtración por Membranas al Tratamiento de Efluentes y Otras Mejoras Ambientales En Planta Valdivia</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>80</v>
+        <v>25000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5964,12 +5964,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2218812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5999,25 +5999,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Veronica Herrmann Lobos</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>14/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6047,25 +6047,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Veronica Herrmann Lobos</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>14/05/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,17 +6103,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6143,25 +6143,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,17 +6199,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6239,25 +6239,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6287,25 +6287,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PROYECTO PROSPECCIONES EN LOS LAVADEROS DE ORO SECTOR MADRE DE DIOS - PUMILLAHUE (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6330,20 +6330,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Compañia Minera Pumillahue</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>962</v>
+        <v>200</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>21/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1827769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PROYECTO PROSPECCIONES EN LOS LAVADEROS DE ORO SECTOR MADRE DE DIOS - PUMILLAHUE (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6378,20 +6378,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Compañia Minera Pumillahue</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>962</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>21/11/2006</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1827769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6431,25 +6431,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Angie Ivonne Caro Astorga</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>23/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6479,25 +6479,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Angie Ivonne Caro Astorga</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>23/10/2006</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Extracción Industrial de Áridos en Cantera La Piedad 2 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6522,30 +6522,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Forestal Valdivia S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590803&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>Extracción Industrial de Áridos en Cantera La Piedad 2 (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6570,30 +6570,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Forestal Valdivia S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1590803&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6623,25 +6623,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,17 +6679,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6719,25 +6719,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,17 +6775,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Rehabilitación Ambiental de Pozos de Áridos del Predio Traiguén (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6810,30 +6810,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>117</v>
+        <v>4000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>03/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan de Cierre y Rehabilitación Ambiental de Pozos de Áridos del Predio Traiguén (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6858,30 +6858,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>03/01/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1207567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6911,25 +6911,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>3517</v>
+        <v>22</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ACTUALIZACIÓN LÍMITE DE EMISIÓN DE ARSÉNICO EN EFLUENTE DE PLANTA VALDIVIA: COMPROMISO VOLUNTARIO DE CUMPLIR NORMA CHILENA DE AGUA POTABLE COMO LÍMITE DE EMISIÓN PARA ARSÉNICO EN LA DESCARGA (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6954,30 +6954,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>3517</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>09/08/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=972205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>ACTUALIZACIÓN LÍMITE DE EMISIÓN DE ARSÉNICO EN EFLUENTE DE PLANTA VALDIVIA: COMPROMISO VOLUNTARIO DE CUMPLIR NORMA CHILENA DE AGUA POTABLE COMO LÍMITE DE EMISIÓN PARA ARSÉNICO EN LA DESCARGA (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7002,30 +7002,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>09/08/2005</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=972205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,15 +7055,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7073,7 +7073,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -7111,17 +7111,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,15 +7151,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Obras Definitivas de Laguna de Derrames de Emergencia en Planta Valdivia (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7194,30 +7194,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>18/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=604793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DESCARGA DE EMERGENCIA DE EFLUENTES TRATADOS (e-seia)</t>
+          <t>Obras Definitivas de Laguna de Derrames de Emergencia en Planta Valdivia (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>18/02/2005</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=541298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=604793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>DESCARGA DE EMERGENCIA DE EFLUENTES TRATADOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7290,30 +7290,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=541298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DRENAJE FUNDO DOLLINCO-PURENTO (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7338,20 +7338,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>sociedad de turismo alepue ltda</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>28/09/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464744&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>DRENAJE FUNDO DOLLINCO-PURENTO (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7386,20 +7386,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>sociedad de turismo alepue ltda</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>28/09/2004</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=464744&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7434,12 +7434,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7482,20 +7482,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Proyecto de Extracción de Áridos, Pozo Ciruelos (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7530,20 +7530,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Valdicor Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=84267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7587,21 +7587,21 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>05/05/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=84267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Restaurante Santa Rosa</t>
+          <t>Proyecto de Extracción de Áridos, Pozo Ciruelos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,25 +7631,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Luisa Agüero Fuentes</t>
+          <t>Valdicor Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>02/08/2002</t>
+          <t>05/05/2003</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5725&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Drenaje Hijuela Dollinco</t>
+          <t>Restaurante Santa Rosa</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,15 +7679,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Pedro del Prado Dantiac</t>
+          <t>Luisa Agüero Fuentes</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>01/08/2002</t>
+          <t>02/08/2002</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5725&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Drenaje Hijuela Dollinco</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7722,20 +7722,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>Pedro del Prado Dantiac</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>10000</v>
+        <v>7</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>01/08/2002</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,25 +7775,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Solicitud de Piscicultura en Estero Quechuco ( N° 200102009 )</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7818,20 +7818,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>SOMAFO S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>14/02/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3623&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF de Ruta 5 Km 780 Comuna de Mariquina Provincia de Valdivia Décima Región</t>
+          <t>Solicitud de Piscicultura en Estero Quechuco ( N° 200102009 )</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,25 +7871,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energía Enex S.A.</t>
+          <t>SOMAFO S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>435</v>
+        <v>20</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>14/11/2000</t>
+          <t>14/02/2001</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3623&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transformación de Las Lagunas de San José en Lodos Activados</t>
+          <t>Estación de Servicio YPF de Ruta 5 Km 780 Comuna de Mariquina Provincia de Valdivia Décima Región</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,15 +7919,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Suralis S.A.</t>
+          <t>Empresa Nacional de Energía Enex S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1390</v>
+        <v>435</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>14/11/2000</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2970&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Planta de Aridos San José de la Mariquina</t>
+          <t>Transformación de Las Lagunas de San José en Lodos Activados</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,15 +7967,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Valdicor Ltda.</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>290</v>
+        <v>1390</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>17/05/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2970&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Aridos San José de la Mariquina</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8010,20 +8010,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Valdicor Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>17/05/2000</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Construcción de Tranque Acumulador de Agua</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8058,20 +8058,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Agrícola Cran Chile Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>03/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Construcción de Cabañas y Quincho</t>
+          <t>Construcción de Tranque Acumulador de Agua</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,15 +8111,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Herta Gladys Morales Manqui</t>
+          <t>Agrícola Cran Chile Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>25/05/1999</t>
+          <t>03/12/1999</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción de Cabañas y Quincho</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8154,20 +8154,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Herta Gladys Morales Manqui</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2500</v>
+        <v>90</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>25/05/1999</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Pozo de Extracción de Áridos Mariquina</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8202,20 +8202,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>FERROVIAL AGROMAN CHILE S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>990</v>
+        <v>2500</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>28/07/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Comuna de Mariquina</t>
+          <t>Pozo de Extracción de Áridos Mariquina</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,25 +8255,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Alvaro Leonidas Awe Espinoza</t>
+          <t>FERROVIAL AGROMAN CHILE S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>08/04/1998</t>
+          <t>28/07/1998</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,12 +8288,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Proyecto Valdivia (Celulosa Arauco y Constitución S.A.) Segunda Presentación</t>
+          <t>Extracción de Áridos Comuna de Mariquina</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -8303,25 +8303,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Alvaro Leonidas Awe Espinoza</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1.045</v>
+        <v>40</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>01/08/1997</t>
+          <t>08/04/1998</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891034&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,43 +8336,91 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
+          <t>Proyecto Valdivia (Celulosa Arauco y Constitución S.A.) Segunda Presentación</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Decimocuarta</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Celulosa Arauco y Constitución S.A.</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>01/08/1997</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=891034&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>San José de la Mariquina</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
           <t>Proyecto Valdivia ( Celulosa Arauco y Constitución ) Primera Presentación</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>Decimocuarta</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
-      <c r="F167" t="n">
+      <c r="F168" t="n">
         <v>1</v>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>06/10/1995</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
+      <c r="I168" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1441&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>San José de la Mariquina</t>
         </is>

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F45" t="n">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Drenaje Superficial fundo Paico</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Carlos German Dienemann Clericus</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>99</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Drenaje Superficial fundo Paico</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Carlos German Dienemann Clericus</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>99</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
+          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
+          <t>PLANTA TERCIADO SAN JOSÉ</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>PANELES ARAUCO S. A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>105000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PLANTA TERCIADO SAN JOSÉ</t>
+          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PANELES ARAUCO S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Drenaje Superficial fundo Paico</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Carlos German Dienemann Clericus</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>99</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Drenaje Superficial fundo Paico</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Carlos German Dienemann Clericus</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>99</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
+          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PLANTA TERCIADO SAN JOSÉ</t>
+          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>PANELES ARAUCO S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>105000</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
+          <t>PLANTA TERCIADO SAN JOSÉ</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>PANELES ARAUCO S. A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>20000</v>
+        <v>105000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">

--- a/data/San José de la Mariquina.xlsx
+++ b/data/San José de la Mariquina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Drenaje Superficial fundo Paico</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Carlos German Dienemann Clericus</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>99</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Drenaje Superficial fundo Paico</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Carlos German Dienemann Clericus</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>99</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6487045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
+          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A.</t>
+          <t>Celulosa Arauco y Constitución S.A..</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN MEDIANTE OPTIMIZACIÓN DE PLANTA VALDIVIA</t>
+          <t>PLANTA TERCIADO SAN JOSÉ</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Celulosa Arauco y Constitución S.A..</t>
+          <t>PANELES ARAUCO S. A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>105000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4622937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PLANTA TERCIADO SAN JOSÉ</t>
+          <t>AUMENTO DE CAPACIDAD DE CALDERA DE PODER PLANTA VALDIVIA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PANELES ARAUCO S. A.</t>
+          <t>Celulosa Arauco y Constitución S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>105000</v>
+        <v>20000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4623489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
